--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3624.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3624.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248952707216719</v>
+        <v>1.745571851730347</v>
       </c>
       <c r="B1">
-        <v>2.14391497942283</v>
+        <v>2.629175901412964</v>
       </c>
       <c r="C1">
-        <v>2.739955220914633</v>
+        <v>3.221799373626709</v>
       </c>
       <c r="D1">
-        <v>3.113328616692302</v>
+        <v>1.226133465766907</v>
       </c>
       <c r="E1">
-        <v>1.675368046701822</v>
+        <v>0.8155626058578491</v>
       </c>
     </row>
   </sheetData>
